--- a/ApolloQA/Data/RatingManual/GA/VA00055.BaseRateFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00055.BaseRateFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00055.BaseRateFactors" sheetId="1" r:id="R325bc38101dd4441"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00055.BaseRateFactors" sheetId="1" r:id="Reef9cf99b84b4bdf"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,155 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Base Rate Factor</x:v>
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Vehicle Age Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Vehicle Age Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size_Vehicle Age Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>26.43</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.6539</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7640</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.8794</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.9985</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.1230</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.2531</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.3875</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.5286</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
